--- a/Chain ring and sprocket calculations.xlsx
+++ b/Chain ring and sprocket calculations.xlsx
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,6 +311,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -641,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -662,9 +663,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1">
       <c r="F3" s="6"/>
@@ -2433,8 +2435,9 @@
   <sortState ref="A69:I88">
     <sortCondition ref="F69:F88"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
